--- a/biology/Zoologie/Conus_friedae/Conus_friedae.xlsx
+++ b/biology/Zoologie/Conus_friedae/Conus_friedae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus friedae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus friedae a été décrite pour la première fois en 1991 par le malacologiste américain António José da Motta (d) dans « La Conchiglia »[1],[2].
-Synonymes
-Conus (Eugeniconus) friedae (da Motta, 1991) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus friedae a été décrite pour la première fois en 1991 par le malacologiste américain António José da Motta (d) dans « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_friedae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_friedae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Eugeniconus) friedae (da Motta, 1991) · appellation alternative
 Conus nobilis friedae (da Motta, 1991) · non accepté
 Eugeniconus friedae da Motta, 1991 · non accepté
 Eugeniconus nobilis friedae da Motta, 1991 · non accepté</t>
